--- a/python/LC.xlsx
+++ b/python/LC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakash/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakash/Desktop/LeetCodePractice/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B882812F-7E4D-2C42-B84D-4D6A97D19A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7329891-87AB-5649-85F1-D15AAFB90180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>LQ Qno.</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>src/leetcode/medium/PairsOfSongsWithTotalDurationsDivisibleBy60.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Overflow issues are a buzz kill</t>
+  </si>
+  <si>
+    <t>src/test/java/easy/ReverseInteger.java</t>
   </si>
 </sst>
 </file>
@@ -439,9 +454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A650391-D44E-E944-A89C-DDEE829408A0}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -552,7 +567,28 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/python/LC.xlsx
+++ b/python/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakash/Desktop/LeetCodePractice/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7329891-87AB-5649-85F1-D15AAFB90180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFA707-DE60-B941-8EC9-AA5DFCEED0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
   </bookViews>
@@ -456,9 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A650391-D44E-E944-A89C-DDEE829408A0}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,10 +505,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>870</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -529,65 +541,56 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>937</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>870</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1010</v>
+        <v>937</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>1010</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="A2:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/python/LC.xlsx
+++ b/python/LC.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakash/Desktop/LeetCodePractice/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFA707-DE60-B941-8EC9-AA5DFCEED0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282A88E-1CA9-1B42-AD16-05F53F094085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>LQ Qno.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="350">
   <si>
     <t>name</t>
   </si>
@@ -96,23 +93,1005 @@
     <t>Reverse Integer</t>
   </si>
   <si>
-    <t>Easy</t>
-  </si>
-  <si>
     <t>Overflow issues are a buzz kill</t>
   </si>
   <si>
     <t>src/test/java/easy/ReverseInteger.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subrectangle-queries/</t>
+  </si>
+  <si>
+    <t>Subrectangle Queries</t>
+  </si>
+  <si>
+    <t>Defining a class and performing operations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box/</t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Move All Balls to Each Box</t>
+  </si>
+  <si>
+    <t>src/test/java/medium/SubrectangleQueriesTest.java</t>
+  </si>
+  <si>
+    <t>src/test/java/medium/MinimumNumberOfOperationsToMoveAllBallsToEachBox.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-move-chips-to-the-same-position/</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Move Chips to The Same Position</t>
+  </si>
+  <si>
+    <t>src/test/java/easy/MinimumCostToMoveChipsToTheSamePosition.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/keys-and-rooms/</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>src/test/java/medium/KeysAndRooms.java</t>
+  </si>
+  <si>
+    <t>BFS simpler, can also use dfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/running-sum-of-1d-array/</t>
+  </si>
+  <si>
+    <t>Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>src/test/java/easy/RunningSumOf1DArray.java</t>
+  </si>
+  <si>
+    <t>streamable option exists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>src/test/java/easy/ReverseString.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number/</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Multiple solution, best one is which does not use modulo operation</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Reordered Power of 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reordered-power-of-2/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shuffle-an-array/</t>
+  </si>
+  <si>
+    <t>Shuffle an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Simple dp very basic, don’t use recursion, tc very bad</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/defanging-an-ip-address/</t>
+  </si>
+  <si>
+    <t>Defanging an IP address</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/student-attendance-record-i/</t>
+  </si>
+  <si>
+    <t>Student Attendance Record I</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/</t>
+  </si>
+  <si>
+    <t>Convert Binary number in a linked list to Integer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shuffle-the-array/</t>
+  </si>
+  <si>
+    <t>Shuffle the Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate-ii/</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate-iii/</t>
+  </si>
+  <si>
+    <t>Contains Duplicate III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-pairs/</t>
+  </si>
+  <si>
+    <t>Number of Good Pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vowel-spellchecker/</t>
+  </si>
+  <si>
+    <t>Vowel Spellchecker</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-iii/</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/di-string-match/</t>
+  </si>
+  <si>
+    <t>DI String Match</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-parity/</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hamming-distance/</t>
+  </si>
+  <si>
+    <t>Hamming Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-number-of-occurrences/</t>
+  </si>
+  <si>
+    <t>Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/make-two-arrays-equal-by-reversing-sub-arrays/</t>
+  </si>
+  <si>
+    <t>Make Two Arrays Equal by Reversing Sub-arrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subdomain-visit-count/</t>
+  </si>
+  <si>
+    <t>Subdomain Visit Count</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/squares-of-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-common-characters/</t>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-matches-in-tournament/</t>
+  </si>
+  <si>
+    <t>Count of Matches in Tournament</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-highest-altitude/</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/to-lower-case/</t>
+  </si>
+  <si>
+    <t>To lower Case</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-morse-code-words/</t>
+  </si>
+  <si>
+    <t>Unique Morse Code Words</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kids-with-the-greatest-number-of-candies/</t>
+  </si>
+  <si>
+    <t>Kids With the Greatest Number of Candies</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/richest-customer-wealth/</t>
+  </si>
+  <si>
+    <t>Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jewels-and-stones/</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-parking-system/</t>
+  </si>
+  <si>
+    <t>Design Parking System</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero/</t>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number to Zero</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shuffle-string/</t>
+  </si>
+  <si>
+    <t>Shuffle String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtract-the-product-and-sum-of-digits-of-an-integer/</t>
+  </si>
+  <si>
+    <t>Subtract the Product and Sum of Digits of an Integer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decompress-run-length-encoded-list/</t>
+  </si>
+  <si>
+    <t>Decompress Run-Length Encoded List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/goal-parser-interpretation/</t>
+  </si>
+  <si>
+    <t>Goal Parser Interpretation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-nesting-depth-of-the-parentheses/</t>
+  </si>
+  <si>
+    <t>Maximum Nesting Depth of the Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-two-string-arrays-are-equivalent/</t>
+  </si>
+  <si>
+    <t>Check If Two String Arrays are Equivalent</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-the-number-of-consistent-strings/</t>
+  </si>
+  <si>
+    <t>Count the Number of Consistent Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cells-with-odd-values-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>Cells with Odd Values in a Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/big-countries/</t>
+  </si>
+  <si>
+    <t>Big Countries</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/matrix-diagonal-sum/</t>
+  </si>
+  <si>
+    <t>Matrix Diagonal Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partitioning-into-minimum-number-of-deci-binary-numbers/</t>
+  </si>
+  <si>
+    <t>Partitioning Into Minimum Number of Deci-Binary Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-center-of-star-graph/</t>
+  </si>
+  <si>
+    <t>Find Center of Star Graph</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-numbers-with-even-number-of-digits/</t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/average-salary-excluding-the-minimum-and-maximum-salary/</t>
+  </si>
+  <si>
+    <t>Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/advantage-shuffle/</t>
+  </si>
+  <si>
+    <t>Advantage Shuffle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pacific-atlantic-water-flow/</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-subsets/</t>
+  </si>
+  <si>
+    <t>Word Subsets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-number/</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/happy-number/</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-bits/</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one/</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-three/</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-binary-trees/</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-items-matching-a-rule/</t>
+  </si>
+  <si>
+    <t>Count Items Matching a Rule</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-xored-array/</t>
+  </si>
+  <si>
+    <t>Decode XORed Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/xor-operation-in-an-array/</t>
+  </si>
+  <si>
+    <t>XOR Operation in an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-n-unique-integers-sum-up-to-zero/</t>
+  </si>
+  <si>
+    <t>Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-if-string-halves-are-alike/</t>
+  </si>
+  <si>
+    <t>Determine if String Halves Are Alike</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/self-dividing-numbers/</t>
+  </si>
+  <si>
+    <t>Self Dividing Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-strings-alternately/</t>
+  </si>
+  <si>
+    <t>Merge Strings Alternately</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/build-an-array-with-stack-operations/</t>
+  </si>
+  <si>
+    <t>Build an Array With Stack Operations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fibonacci-number/</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-unique-elements/</t>
+  </si>
+  <si>
+    <t>Sum of Unique Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-recent-calls/</t>
+  </si>
+  <si>
+    <t>Number of Recent Calls</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stamping-the-sequence/</t>
+  </si>
+  <si>
+    <t>Stamping the Sequence</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-iii/</t>
+  </si>
+  <si>
+    <t>Course Schedule III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/prefix-and-suffix-search/</t>
+  </si>
+  <si>
+    <t>Prefix and Suffix Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-decreasing-array/</t>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-operation-for-two-strings/</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-distance-to-the-target-element/</t>
+  </si>
+  <si>
+    <t>Minimum Distance to the Target Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/</t>
+  </si>
+  <si>
+    <t>How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>Constraints play a huge role</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/super-palindromes/</t>
+  </si>
+  <si>
+    <t>Super Palindromes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/factorial-trailing-zeroes/</t>
+  </si>
+  <si>
+    <t>Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sqrtx/</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-strstr/</t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-two-integers/</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-primes/</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-valid-parentheses/</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-knight-moves/</t>
+  </si>
+  <si>
+    <t>Minimum Knight Moves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
+  </si>
+  <si>
+    <t>Maximum Poiints You Can Obtain from Cards</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-string-chain/</t>
+  </si>
+  <si>
+    <t>Longest String Chain</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-duplicate-file-in-system/</t>
+  </si>
+  <si>
+    <t>Find Duplicate Flie in System</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>Container with Most Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-element/</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/robot-bounded-in-circle/</t>
+  </si>
+  <si>
+    <t>Robot Bounded In Circle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-tic-tac-toe/</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-of-word-lengths/</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-connect-sticks/</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Connect Sticks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-queens-ii/</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindromic-substrings/</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-bad-version/</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-an-array/</t>
+  </si>
+  <si>
+    <t>Sort an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-suggestions-system/</t>
+  </si>
+  <si>
+    <t>Search Suggestions System</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/</t>
+  </si>
+  <si>
+    <t>Maximum Area of a Piece of Cake After Horizontal and Vertical Cuts</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-area-of-island/</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/paint-house/</t>
+  </si>
+  <si>
+    <t>Paint House</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/interleaving-string/</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/open-the-lock/</t>
+  </si>
+  <si>
+    <t>Open the Lock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-word-equals-summation-of-two-words/</t>
+  </si>
+  <si>
+    <t>Check if Word Equals Summation of Two Words</t>
+  </si>
+  <si>
+    <t>Maximum Performance of a Team</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-performance-of-a-team/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>Sorting is simple and tc is O(NlogN). But use Set and HashMap to reduce it to O(N). Provided solution is much smarter</t>
+  </si>
+  <si>
+    <t>LC Qno.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,13 +1117,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -452,145 +1453,2374 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{D6EF8308-35D6-804B-9163-1E41F943656B}">
+  <we:reference id="wa200001306" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200001306" version="2.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A650391-D44E-E944-A89C-DDEE829408A0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="55" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="47.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="48" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>101</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>108</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>121</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>124</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>141</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>144</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>145</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>146</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>155</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>160</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>169</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>171</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>172</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>189</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>191</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>202</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>204</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>206</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>217</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>219</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>220</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>237</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>242</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>256</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>268</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>278</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>283</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>287</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>318</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>326</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>344</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>347</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>348</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>350</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>371</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>384</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>387</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>412</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>417</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>448</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>461</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>509</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>551</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>557</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>572</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>583</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>595</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>609</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>617</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>630</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>647</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>665</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>695</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>700</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>709</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>728</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>745</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>752</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>771</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>804</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>811</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>841</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>869</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>870</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="100" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>876</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>905</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>906</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>912</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>916</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>933</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>936</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>937</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>942</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>966</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>977</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>1167</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>1197</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>1207</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>1217</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>1268</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>1281</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>1295</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>1383</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>1423</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>1431</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>1441</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>1476</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="D136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>1480</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>1486</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>1491</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>1512</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>220</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>870</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>937</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1010</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
+      <c r="D140" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>1528</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>1603</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>1614</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>1662</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>1678</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>1684</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>1704</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>1720</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>1732</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>1768</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>1769</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>1773</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>1791</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>1848</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>1880</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F161">
+    <sortCondition ref="A1:A161"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D4:D1048576" xr:uid="{595D32B6-7079-2B4F-892C-5B88B245F55E}">
+      <formula1>"easy, medium, hard"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/python/LC.xlsx
+++ b/python/LC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakash/Desktop/LeetCodePractice/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282A88E-1CA9-1B42-AD16-05F53F094085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B44DC-61C5-0348-8A97-D3B11F74BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="357">
   <si>
     <t>name</t>
   </si>
@@ -1075,6 +1075,27 @@
   </si>
   <si>
     <t>LC Qno.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/submissions/</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Sorting on arrival time and then comparing if they can be merged</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Simple dp with adding cost. Skip cost for base conditions</t>
+  </si>
+  <si>
+    <t>src/test/java/easy/MinCostClimbingStairs.java</t>
   </si>
 </sst>
 </file>
@@ -1475,11 +1496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A650391-D44E-E944-A89C-DDEE829408A0}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3809,6 +3830,43 @@
         <v>17</v>
       </c>
     </row>
+    <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>56</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>746</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F161">
     <sortCondition ref="A1:A161"/>

--- a/python/LC.xlsx
+++ b/python/LC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakash/Desktop/LeetCodePractice/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B44DC-61C5-0348-8A97-D3B11F74BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E165525F-A563-264C-832E-14D25EC213D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{602863E7-E81E-D041-B2B4-436E4560BFF8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="359">
   <si>
     <t>name</t>
   </si>
@@ -1096,13 +1096,19 @@
   </si>
   <si>
     <t>src/test/java/easy/MinCostClimbingStairs.java</t>
+  </si>
+  <si>
+    <t>src/test/java/easy/MergeStringsAlternately.java</t>
+  </si>
+  <si>
+    <t>Simple like linked list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1116,6 +1122,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF5F826B"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1138,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1151,6 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1496,11 +1509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A650391-D44E-E944-A89C-DDEE829408A0}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3603,7 +3616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1662</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1672</v>
       </c>
@@ -3631,7 +3644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1678</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1684</v>
       </c>
@@ -3659,7 +3672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1688</v>
       </c>
@@ -3673,7 +3686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1689</v>
       </c>
@@ -3687,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1704</v>
       </c>
@@ -3701,7 +3714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1720</v>
       </c>
@@ -3715,7 +3728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1732</v>
       </c>
@@ -3729,7 +3742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1748</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>1768</v>
       </c>
@@ -3756,8 +3769,14 @@
       <c r="D155" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E155" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1769</v>
       </c>
@@ -3774,7 +3793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1773</v>
       </c>
@@ -3788,7 +3807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1791</v>
       </c>
@@ -3802,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1848</v>
       </c>
@@ -3816,7 +3835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1880</v>
       </c>
@@ -3866,6 +3885,9 @@
       <c r="F162" s="1" t="s">
         <v>355</v>
       </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F161">
